--- a/data/2.xlsx
+++ b/data/2.xlsx
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,6 +62,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,108 +77,73 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,19 +163,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,25 +215,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,19 +341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,37 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,85 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,41 +409,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,15 +425,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,7 +448,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,151 +482,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,7 +978,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1194,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D8">
         <v>1</v>

--- a/data/2.xlsx
+++ b/data/2.xlsx
@@ -48,8 +48,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -62,16 +62,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,47 +93,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,9 +148,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,45 +191,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,19 +215,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,31 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,127 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,26 +406,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,7 +428,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,15 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,151 +477,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,7 +978,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>-2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>-2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>-3</v>
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D14">
         <v>1</v>
